--- a/matlab/logDataProcess/ipb35-51.xlsx
+++ b/matlab/logDataProcess/ipb35-51.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="405" windowWidth="30945" windowHeight="14340"/>
+    <workbookView xWindow="1860" yWindow="750" windowWidth="30945" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>reactor</t>
   </si>
@@ -86,6 +86,42 @@
   </si>
   <si>
     <t>IPB3-5_SEQ_PW_10us-80ns_50W_275-325C_H2_8-26-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-100ns-350-450-600_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns-96_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-100ns-250-600</t>
+  </si>
+  <si>
+    <t>090917</t>
+  </si>
+  <si>
+    <t>090717</t>
+  </si>
+  <si>
+    <t>100ns-325v-275-325-911_day-01.csv</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>100ns-325v-d2</t>
+  </si>
+  <si>
+    <t>091217</t>
+  </si>
+  <si>
+    <t>10us-80ns-d2-912_day-01.csv</t>
+  </si>
+  <si>
+    <t>091317</t>
+  </si>
+  <si>
+    <t>10us-80ns-275-325-d2</t>
   </si>
 </sst>
 </file>
@@ -936,7 +972,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -960,7 +996,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1065,16 +1101,205 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/ipb35-51.xlsx
+++ b/matlab/logDataProcess/ipb35-51.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>reactor</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>10us-80ns-275-325-d2</t>
+  </si>
+  <si>
+    <t>093017</t>
+  </si>
+  <si>
+    <t>10us-80ns-929_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns-350-600-1001_day-01.csv</t>
+  </si>
+  <si>
+    <t>100217</t>
+  </si>
+  <si>
+    <t>10us-80ns-350-600c</t>
   </si>
 </sst>
 </file>
@@ -969,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1301,6 +1316,106 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>59</v>
+      </c>
+      <c r="G8" s="2">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
